--- a/biology/Microbiologie/Rhodothermales/Rhodothermales.xlsx
+++ b/biology/Microbiologie/Rhodothermales/Rhodothermales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhodothermales forment un ordre de bactéries dans la classe des Rhodothermia dans le phylum Rhodothermota. Cet ordre comprend quatre familles.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Rhodothermales a d'abord été décrit en 2016 par Munoz et al. mais cette publication n'a pas été publiée de manière valide[2]. En 2017, il a reçu l'aval et la validation de l'ICSP[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Rhodothermales a d'abord été décrit en 2016 par Munoz et al. mais cette publication n'a pas été publiée de manière valide. En 2017, il a reçu l'aval et la validation de l'ICSP.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du phylum Rhodothermota est la suivante : Rho.do.ther.ma’les N.L. masc. n. Rhodothermus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour définir un ordre; N.L. fem. pl. n. Rhodothermales, l'ordre des Rhodothermus[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du phylum Rhodothermota est la suivante : Rho.do.ther.ma’les N.L. masc. n. Rhodothermus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour définir un ordre; N.L. fem. pl. n. Rhodothermales, l'ordre des Rhodothermus.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Actuellement, selon la LPSN  (18 novembre 2022)[3], les Rhodothermales comptent quatre familles.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Actuellement, selon la LPSN  (18 novembre 2022), les Rhodothermales comptent quatre familles.
 Rhodothermaceae Ludwig et al. 2012
 Rubricoccaceae Munoz et al. 2016
 Salinibacteraceae Munoz et al. 2016
